--- a/data/trans_orig/Q15_1-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/Q15_1-Habitat-trans_orig.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N16"/>
+  <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -661,37 +661,37 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,12</t>
+          <t>0,09</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,05</t>
+          <t>0,07</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,06</t>
+          <t>0,1</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,06</t>
+          <t>0,07</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,08</t>
+          <t>0,11</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,06</t>
+          <t>0,09</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,11</t>
+          <t>0,1</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
@@ -706,12 +706,12 @@
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>0,06</t>
+          <t>0,08</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>0,09</t>
+          <t>0,1</t>
         </is>
       </c>
     </row>
@@ -724,69 +724,69 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,04; 0,19</t>
+          <t>0,07; 0,12</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,07; 0,2</t>
+          <t>0,07; 0,12</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,02; 0,1</t>
+          <t>0,05; 0,09</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,03; 0,15</t>
+          <t>0,07; 0,18</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,03; 0,12</t>
+          <t>0,05; 0,13</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0,03; 0,24</t>
+          <t>0,07; 0,17</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0,02; 0,15</t>
+          <t>0,06; 0,12</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0,05; 0,25</t>
+          <t>0,08; 0,13</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0,04; 0,13</t>
+          <t>0,06; 0,11</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>0,06; 0,19</t>
+          <t>0,08; 0,13</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>0,03; 0,1</t>
+          <t>0,06; 0,1</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>0,06; 0,17</t>
+          <t>0,08; 0,13</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -796,62 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
+          <t>0,1</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
           <t>0,09</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>0,08</t>
-        </is>
-      </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
+          <t>0,06</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>0,08</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>0,06</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>0,09</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
           <t>0,07</t>
         </is>
       </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>0,1</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
+      <c r="J6" s="2" t="inlineStr">
         <is>
           <t>0,07</t>
         </is>
       </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>0,11</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>0,08</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
         <is>
           <t>0,09</t>
         </is>
       </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>0,09</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>0,08</t>
-        </is>
-      </c>
-      <c r="L6" s="2" t="inlineStr">
-        <is>
-          <t>0,1</t>
-        </is>
-      </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>0,08</t>
+          <t>0,06</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>0,1</t>
+          <t>0,08</t>
         </is>
       </c>
     </row>
@@ -864,69 +864,69 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
+          <t>0,07; 0,13</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>0,07; 0,11</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>0,05; 0,08</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>0,04; 0,14</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>0,05; 0,08</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
           <t>0,07; 0,12</t>
         </is>
       </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>0,06; 0,12</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
+      <c r="I7" s="2" t="inlineStr">
         <is>
           <t>0,05; 0,1</t>
         </is>
       </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>0,07; 0,19</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>0,04; 0,14</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>0,08; 0,18</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>0,07; 0,13</t>
-        </is>
-      </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0,07; 0,12</t>
+          <t>0,06; 0,1</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0,06; 0,12</t>
+          <t>0,07; 0,1</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>0,07; 0,13</t>
+          <t>0,08; 0,11</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>0,06; 0,1</t>
+          <t>0,05; 0,08</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>0,08; 0,15</t>
+          <t>0,05; 0,11</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -936,12 +936,12 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,1</t>
+          <t>0,07</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,09</t>
+          <t>0,08</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
@@ -951,7 +951,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,09</t>
+          <t>0,04</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -961,37 +961,37 @@
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,09</t>
+          <t>0,08</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
+          <t>0,04</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>0,08</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
           <t>0,07</t>
         </is>
       </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>0,07</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>0,08</t>
-        </is>
-      </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>0,09</t>
+          <t>0,08</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
+          <t>0,05</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
           <t>0,06</t>
-        </is>
-      </c>
-      <c r="N8" s="2" t="inlineStr">
-        <is>
-          <t>0,08</t>
         </is>
       </c>
     </row>
@@ -1004,69 +1004,69 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,07; 0,13</t>
+          <t>0,05; 0,1</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,07; 0,11</t>
+          <t>0,06; 0,1</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,05; 0,08</t>
+          <t>0,04; 0,08</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,06; 0,15</t>
+          <t>0,03; 0,06</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0,05; 0,08</t>
+          <t>0,04; 0,09</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0,07; 0,12</t>
+          <t>0,06; 0,1</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0,05; 0,1</t>
+          <t>0,03; 0,06</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0,06; 0,1</t>
+          <t>0,04; 0,12</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
+          <t>0,05; 0,09</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
           <t>0,07; 0,1</t>
         </is>
       </c>
-      <c r="L9" s="2" t="inlineStr">
-        <is>
-          <t>0,08; 0,11</t>
-        </is>
-      </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>0,05; 0,08</t>
+          <t>0,04; 0,07</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>0,06; 0,11</t>
+          <t>0,04; 0,09</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1076,29 +1076,29 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
+          <t>0,06</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>0,12</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
           <t>0,07</t>
         </is>
       </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>0,08</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>0,06</t>
-        </is>
-      </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
+          <t>0,08</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
           <t>0,04</t>
         </is>
       </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>0,06</t>
-        </is>
-      </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
           <t>0,08</t>
@@ -1106,32 +1106,32 @@
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>0,04</t>
+          <t>0,07</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
+          <t>0,08</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>0,05</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
           <t>0,1</t>
         </is>
       </c>
-      <c r="K10" s="2" t="inlineStr">
+      <c r="M10" s="2" t="inlineStr">
         <is>
           <t>0,07</t>
         </is>
       </c>
-      <c r="L10" s="2" t="inlineStr">
-        <is>
-          <t>0,08</t>
-        </is>
-      </c>
-      <c r="M10" s="2" t="inlineStr">
-        <is>
-          <t>0,05</t>
-        </is>
-      </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>0,07</t>
+          <t>0,08</t>
         </is>
       </c>
     </row>
@@ -1144,29 +1144,29 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
+          <t>0,05; 0,08</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>0,09; 0,17</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
           <t>0,05; 0,1</t>
         </is>
       </c>
-      <c r="D11" s="2" t="inlineStr">
+      <c r="F11" s="2" t="inlineStr">
         <is>
           <t>0,06; 0,1</t>
         </is>
       </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>0,04; 0,08</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
+      <c r="G11" s="2" t="inlineStr">
         <is>
           <t>0,03; 0,06</t>
         </is>
       </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>0,04; 0,09</t>
-        </is>
-      </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
           <t>0,06; 0,1</t>
@@ -1174,39 +1174,39 @@
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0,03; 0,06</t>
+          <t>0,05; 0,09</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0,06; 0,14</t>
+          <t>0,06; 0,1</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>0,05; 0,09</t>
+          <t>0,04; 0,06</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>0,07; 0,1</t>
+          <t>0,08; 0,12</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>0,04; 0,07</t>
+          <t>0,06; 0,09</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>0,05; 0,1</t>
+          <t>0,06; 0,09</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1216,52 +1216,52 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
+          <t>0,08</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>0,1</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
           <t>0,06</t>
         </is>
       </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>0,12</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
+      <c r="F12" s="2" t="inlineStr">
         <is>
           <t>0,07</t>
         </is>
       </c>
-      <c r="F12" s="2" t="inlineStr">
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>0,06</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>0,09</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
         <is>
           <t>0,07</t>
         </is>
       </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>0,04</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>0,08</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>0,08</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
         <is>
           <t>0,07</t>
         </is>
       </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>0,08</t>
-        </is>
-      </c>
-      <c r="K12" s="2" t="inlineStr">
-        <is>
-          <t>0,05</t>
-        </is>
-      </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>0,1</t>
+          <t>0,09</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
@@ -1284,17 +1284,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,05; 0,08</t>
+          <t>0,07; 0,09</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0,09; 0,17</t>
+          <t>0,08; 0,11</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0,05; 0,1</t>
+          <t>0,06; 0,07</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1304,37 +1304,37 @@
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0,03; 0,06</t>
+          <t>0,05; 0,07</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0,06; 0,1</t>
+          <t>0,08; 0,1</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0,05; 0,09</t>
+          <t>0,06; 0,08</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0,06; 0,1</t>
+          <t>0,07; 0,1</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>0,04; 0,06</t>
+          <t>0,06; 0,08</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>0,08; 0,12</t>
+          <t>0,08; 0,1</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>0,06; 0,09</t>
+          <t>0,06; 0,07</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
@@ -1344,154 +1344,14 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B14" s="3" t="inlineStr">
-        <is>
-          <t>Media</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>0,08</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>0,1</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>0,06</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>0,08</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>0,06</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>0,09</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>0,07</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>0,09</t>
-        </is>
-      </c>
-      <c r="K14" s="2" t="inlineStr">
-        <is>
-          <t>0,07</t>
-        </is>
-      </c>
-      <c r="L14" s="2" t="inlineStr">
-        <is>
-          <t>0,09</t>
-        </is>
-      </c>
-      <c r="M14" s="2" t="inlineStr">
-        <is>
-          <t>0,07</t>
-        </is>
-      </c>
-      <c r="N14" s="2" t="inlineStr">
-        <is>
-          <t>0,08</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n"/>
-      <c r="B15" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>0,07; 0,09</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>0,08; 0,11</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>0,06; 0,07</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>0,06; 0,1</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>0,05; 0,07</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>0,08; 0,1</t>
-        </is>
-      </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>0,06; 0,08</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>0,07; 0,1</t>
-        </is>
-      </c>
-      <c r="K15" s="2" t="inlineStr">
-        <is>
-          <t>0,06; 0,08</t>
-        </is>
-      </c>
-      <c r="L15" s="2" t="inlineStr">
-        <is>
-          <t>0,08; 0,1</t>
-        </is>
-      </c>
-      <c r="M15" s="2" t="inlineStr">
-        <is>
-          <t>0,06; 0,07</t>
-        </is>
-      </c>
-      <c r="N15" s="2" t="inlineStr">
-        <is>
-          <t>0,07; 0,09</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A14" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
@@ -1501,7 +1361,6 @@
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="K1:N1"/>
-    <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/trans_orig/Q15_1-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/Q15_1-Habitat-trans_orig.xlsx
@@ -534,7 +534,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población según el número de accidentes en los últimos 12 meses</t>
+          <t>Número medio de accidentes en los últimos 12 meses</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -739,17 +739,17 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,07; 0,18</t>
+          <t>0,06; 0,18</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,05; 0,13</t>
+          <t>0,05; 0,12</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0,07; 0,17</t>
+          <t>0,07; 0,16</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -759,19 +759,19 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
+          <t>0,07; 0,13</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>0,07; 0,11</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
           <t>0,08; 0,13</t>
         </is>
       </c>
-      <c r="K5" s="2" t="inlineStr">
-        <is>
-          <t>0,06; 0,11</t>
-        </is>
-      </c>
-      <c r="L5" s="2" t="inlineStr">
-        <is>
-          <t>0,08; 0,13</t>
-        </is>
-      </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
           <t>0,06; 0,1</t>
@@ -779,7 +779,7 @@
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>0,08; 0,13</t>
+          <t>0,08; 0,14</t>
         </is>
       </c>
     </row>
@@ -864,32 +864,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
+          <t>0,07; 0,12</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>0,07; 0,11</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>0,05; 0,08</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>0,04; 0,13</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>0,05; 0,08</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
           <t>0,07; 0,13</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>0,07; 0,11</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>0,05; 0,08</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>0,04; 0,14</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>0,05; 0,08</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>0,07; 0,12</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
@@ -1009,57 +1009,57 @@
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
+          <t>0,06; 0,11</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>0,04; 0,08</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>0,03; 0,06</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>0,04; 0,09</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
           <t>0,06; 0,1</t>
         </is>
       </c>
-      <c r="E9" s="2" t="inlineStr">
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>0,03; 0,06</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>0,04; 0,12</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>0,05; 0,09</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>0,07; 0,1</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>0,04; 0,06</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
         <is>
           <t>0,04; 0,08</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>0,03; 0,06</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>0,04; 0,09</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>0,06; 0,1</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>0,03; 0,06</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>0,04; 0,12</t>
-        </is>
-      </c>
-      <c r="K9" s="2" t="inlineStr">
-        <is>
-          <t>0,05; 0,09</t>
-        </is>
-      </c>
-      <c r="L9" s="2" t="inlineStr">
-        <is>
-          <t>0,07; 0,1</t>
-        </is>
-      </c>
-      <c r="M9" s="2" t="inlineStr">
-        <is>
-          <t>0,04; 0,07</t>
-        </is>
-      </c>
-      <c r="N9" s="2" t="inlineStr">
-        <is>
-          <t>0,04; 0,09</t>
         </is>
       </c>
     </row>
@@ -1154,34 +1154,34 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
+          <t>0,06; 0,1</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>0,06; 0,1</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>0,03; 0,06</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>0,06; 0,1</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
           <t>0,05; 0,1</t>
         </is>
       </c>
-      <c r="F11" s="2" t="inlineStr">
+      <c r="J11" s="2" t="inlineStr">
         <is>
           <t>0,06; 0,1</t>
         </is>
       </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>0,03; 0,06</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>0,06; 0,1</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>0,05; 0,09</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>0,06; 0,1</t>
-        </is>
-      </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
           <t>0,04; 0,06</t>
@@ -1189,7 +1189,7 @@
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>0,08; 0,12</t>
+          <t>0,08; 0,13</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
@@ -1309,7 +1309,7 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0,08; 0,1</t>
+          <t>0,07; 0,1</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
